--- a/Content/Tractors/Tractor_Image_Infos2.xlsx
+++ b/Content/Tractors/Tractor_Image_Infos2.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
-  <si>
-    <t>New Holland Tractors</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>Swaraj Tractors</t>
   </si>
   <si>
     <t>Mahindra Tractors</t>
@@ -25,154 +25,49 @@
     <t>Massey Ferguson Tractors</t>
   </si>
   <si>
-    <t>Farmtrac Tractors</t>
-  </si>
-  <si>
-    <t>Kubota Tractors</t>
-  </si>
-  <si>
-    <t>Powertrac Tractors</t>
-  </si>
-  <si>
-    <t>Eicher Tractors</t>
-  </si>
-  <si>
-    <t>Swaraj Tractors</t>
-  </si>
-  <si>
     <t>John Deere Tractors</t>
   </si>
   <si>
-    <t>Sonalika Tractors</t>
-  </si>
-  <si>
-    <t>Digitrac Tractors</t>
-  </si>
-  <si>
-    <t>3630 Tx Special Edition</t>
-  </si>
-  <si>
-    <t>Yuvraj 215 NXT</t>
-  </si>
-  <si>
-    <t>Yuvo 575 DI 4WD</t>
-  </si>
-  <si>
-    <t>1035 DI</t>
-  </si>
-  <si>
-    <t>275 DI TU XP Plus</t>
-  </si>
-  <si>
-    <t>ARJUN NOVO 605 DI–i-4WD</t>
-  </si>
-  <si>
-    <t>60 PowerMaxx</t>
-  </si>
-  <si>
-    <t>MU4501 2WD</t>
-  </si>
-  <si>
-    <t>265 DI</t>
-  </si>
-  <si>
-    <t>Euro 50</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>5105</t>
-  </si>
-  <si>
-    <t>5050 D - 4WD</t>
-  </si>
-  <si>
-    <t>745 DI III Sikander</t>
-  </si>
-  <si>
-    <t>Oja 3140 4WD</t>
-  </si>
-  <si>
-    <t>PP 46i</t>
-  </si>
-  <si>
-    <t>8055 Magnatrak</t>
-  </si>
-  <si>
-    <t>YUVO TECH Plus 415 DI</t>
-  </si>
-  <si>
-    <t>744 FE 4WD</t>
-  </si>
-  <si>
-    <t>5210</t>
-  </si>
-  <si>
-    <t>['img0-new-holland-3630-tx-special-edition-1689916088.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-new-holland-3630-tx-special-edition-1689916088.png']</t>
-  </si>
-  <si>
-    <t>['img0-yuvraj-215-nxt-1632209478.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-yuvo-575-di-4wd-1632209384.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-yuvo-575-di-4wd-1632209384.png']</t>
-  </si>
-  <si>
-    <t>['img0-1035-di-1632210763.png', 'img1-upload-1632210763-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-275-di-tu-xp-plus-1632304804.png', 'img1-275-di-tu-xp-plus-1632304804.png', 'img2-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-mahindra-arjun-novo-605-dii-4wd-1698917936.png', 'img1-mahindra-arjun-novo-605-dii-4wd-16989179360.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-farmtrac-60-powermaxx-1690541201.png', 'img1-farmtrac-60-powermaxx-16905412010.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-kubota-mu4501-2wd.png', 'img1-upload-1632223345-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-265-di-1632210883.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-265-di-1632210883.png']</t>
-  </si>
-  <si>
-    <t>['img0-euro-50-1632287717.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-380-1632220220.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-code-1646204065.png', 'img1-code-1646204065.png', 'img2-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-5105-1632222132.png', 'img1-upload-1632222132-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-5050-d-4wd-1632220996.png', 'img1-upload-1632220996-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-745-di-iii-sikander-1631526194.png', 'img1-upload-1631526194-0.png', 'img2-upload-1631526194-0.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-mahindra-oja-3140-4wd-1692164169.png', 'img1-mahindra-oja-3140-4wd-16921699120.png', 'img2-mahindra-oja-3140-4wd-16921703420.png', 'img3-mahindra-oja-3140-4wd-16921699120.png']</t>
-  </si>
-  <si>
-    <t>['img0-digitrac-pp-46i7.png', 'img1-upload-1647864809-0.png', 'img2-upload-1647864809-0.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-8055-magnatrak-1649221137.png', 'img1-upload-1649221137-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-yuvo-tech-plus-415-di-1633952706.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-yuvo-tech-plus-415-di-1633952706.png']</t>
-  </si>
-  <si>
-    <t>['img0-744-fe-4wd-1631014809.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-744-fe-4wd-1631014809.png']</t>
-  </si>
-  <si>
-    <t>['img0-5210-1632222316.png', 'img1-5210-1632222316.png']</t>
+    <t>744 FE</t>
+  </si>
+  <si>
+    <t>255 DI Power Plus</t>
+  </si>
+  <si>
+    <t>575 DI XP Plus</t>
+  </si>
+  <si>
+    <t>275 DI ECO</t>
+  </si>
+  <si>
+    <t>735 FE</t>
+  </si>
+  <si>
+    <t>241 DI MAHA SHAKTI</t>
+  </si>
+  <si>
+    <t>5310 4WD</t>
+  </si>
+  <si>
+    <t>['img0-swaraj-744-fe-1694259976.png', 'img1-744-fe-1631014732.png', 'img2-upload-1631014732-0.png', 'img3-swaraj-744-fe-16942599760.png']</t>
+  </si>
+  <si>
+    <t>['img0-255-di-power-plus-1632206290.png', 'img1-upload-1632206290-0.png', 'img2-255-di-power-plus-1632206290.png', 'img3-upload-1632206290-0.png']</t>
+  </si>
+  <si>
+    <t>['img0-575-di-xp-plus-1632207330.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-275-di-eco-1632305472.png', 'img1-275-di-eco-1632305472.png']</t>
+  </si>
+  <si>
+    <t>['img0-735-fe-1631013770.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-241-di-maha-shakti-1632209992.png', 'img1-upload-1632209992-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-5310-4wd-1632222789.png', 'img1-5310-4wd-1632222789.png', 'img2-mqdefault.png']</t>
   </si>
   <si>
     <t>Brand</t>
@@ -537,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,13 +440,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -559,21 +454,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -581,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -592,296 +487,43 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Content/Tractors/Tractor_Image_Infos2.xlsx
+++ b/Content/Tractors/Tractor_Image_Infos2.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+  <si>
+    <t>Sonalika Tractors</t>
+  </si>
   <si>
     <t>Swaraj Tractors</t>
   </si>
@@ -22,52 +25,208 @@
     <t>Mahindra Tractors</t>
   </si>
   <si>
+    <t>Kubota Tractors</t>
+  </si>
+  <si>
+    <t>Blue Series Tractors</t>
+  </si>
+  <si>
+    <t>New Holland Tractors</t>
+  </si>
+  <si>
     <t>Massey Ferguson Tractors</t>
   </si>
   <si>
     <t>John Deere Tractors</t>
   </si>
   <si>
-    <t>744 FE</t>
-  </si>
-  <si>
-    <t>255 DI Power Plus</t>
-  </si>
-  <si>
-    <t>575 DI XP Plus</t>
-  </si>
-  <si>
-    <t>275 DI ECO</t>
-  </si>
-  <si>
-    <t>735 FE</t>
-  </si>
-  <si>
-    <t>241 DI MAHA SHAKTI</t>
-  </si>
-  <si>
-    <t>5310 4WD</t>
-  </si>
-  <si>
-    <t>['img0-swaraj-744-fe-1694259976.png', 'img1-744-fe-1631014732.png', 'img2-upload-1631014732-0.png', 'img3-swaraj-744-fe-16942599760.png']</t>
-  </si>
-  <si>
-    <t>['img0-255-di-power-plus-1632206290.png', 'img1-upload-1632206290-0.png', 'img2-255-di-power-plus-1632206290.png', 'img3-upload-1632206290-0.png']</t>
-  </si>
-  <si>
-    <t>['img0-575-di-xp-plus-1632207330.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-275-di-eco-1632305472.png', 'img1-275-di-eco-1632305472.png']</t>
-  </si>
-  <si>
-    <t>['img0-735-fe-1631013770.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-241-di-maha-shakti-1632209992.png', 'img1-upload-1632209992-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
-  </si>
-  <si>
-    <t>['img0-5310-4wd-1632222789.png', 'img1-5310-4wd-1632222789.png', 'img2-mqdefault.png']</t>
+    <t>Eicher Tractors</t>
+  </si>
+  <si>
+    <t>Powertrac Tractors</t>
+  </si>
+  <si>
+    <t>Farmtrac Tractors</t>
+  </si>
+  <si>
+    <t>DI 60</t>
+  </si>
+  <si>
+    <t>735 FE E</t>
+  </si>
+  <si>
+    <t>NOVO 605 DI CRDI</t>
+  </si>
+  <si>
+    <t>735 XT</t>
+  </si>
+  <si>
+    <t>YUVO 275 DI</t>
+  </si>
+  <si>
+    <t>855 FE 4WD</t>
+  </si>
+  <si>
+    <t>MU4501 2WD</t>
+  </si>
+  <si>
+    <t>Simba 30</t>
+  </si>
+  <si>
+    <t>Arjun Novo 605 DI-MS</t>
+  </si>
+  <si>
+    <t>5630 TX Plus Trem IV CRDI 4WD</t>
+  </si>
+  <si>
+    <t>245 DI</t>
+  </si>
+  <si>
+    <t>5042 D</t>
+  </si>
+  <si>
+    <t>2635 4WD</t>
+  </si>
+  <si>
+    <t>275 DI XP Plus</t>
+  </si>
+  <si>
+    <t>585 DI Power Plus BP</t>
+  </si>
+  <si>
+    <t>557 4WD</t>
+  </si>
+  <si>
+    <t>Tiger Electric 4WD</t>
+  </si>
+  <si>
+    <t>YUVO 475 DI</t>
+  </si>
+  <si>
+    <t>246 DYNATRACK 4WD</t>
+  </si>
+  <si>
+    <t>5075E-4WD</t>
+  </si>
+  <si>
+    <t>YUVO TECH Plus 265 DI</t>
+  </si>
+  <si>
+    <t>434 DS</t>
+  </si>
+  <si>
+    <t>3037 TX</t>
+  </si>
+  <si>
+    <t>Atom 26</t>
+  </si>
+  <si>
+    <t>Simba 20 4WD</t>
+  </si>
+  <si>
+    <t>415 DI</t>
+  </si>
+  <si>
+    <t>MM-18</t>
+  </si>
+  <si>
+    <t>DI 745 III</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>575 DI</t>
+  </si>
+  <si>
+    <t>['img0-di-60-1631527166.png', 'img1-upload-1631527166-0.png', 'img2-upload-1631527166-0.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-swaraj-735-fe-e-1701335706.png', 'img1-swaraj-735-fe-e-17013357060.png', 'img2-swaraj-735-fe-e-1701335706.png', 'img3-swaraj-735-fe-e-17013357060.png']</t>
+  </si>
+  <si>
+    <t>['img0-mahindra-novo-605-di-crdi9.png', 'img1-mahindra-novo-605-di-crdi9.png', 'img2-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-735-xt-1631014365.png', 'img1-735-xt-1631014365.png', 'img2-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-yuvo-275-di-1632304735.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-swaraj-855-fe-4wd-1695808511.png', 'img1-swaraj-855-fe-4wd-16958103590.png', 'img2-swaraj-855-fe-4wd-16958103590.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-kubota-mu4501-2wd.png', 'img1-upload-1632223345-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-new-holland-simba-3005.png', 'img1-new-holland-simba-30026.png', 'img2-new-holland-simba-30026.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-arjun-novo-605-di-ms-1632304390.png', 'img1-upload-1632207991-0.png', 'img2-upload-1632207991-0.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-new-holland-5630-tx-plus-trem-iv-crdi-4wd-1703671837.png', 'img1-new-holland-5630-tx-plus-trem-iv-crdi-4wd-17036718370.png', 'img2-new-holland-5630-tx-plus-trem-iv-crdi-4wd-1703671837.png', 'img3-new-holland-5630-tx-plus-trem-iv-crdi-4wd-17036718370.png']</t>
+  </si>
+  <si>
+    <t>['img0-245-di-1632210490.png', 'img1-upload-1632210490-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-5042-d-1632220433.png', 'img1-upload-1632220433-0.png', 'img2-5042-d-1632220433.png', 'img3-upload-1632220433-0.png']</t>
+  </si>
+  <si>
+    <t>['img0-2635-4wd-1632215119.png', 'img1-upload-1632215119-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-mahindra-275-di-xp-plus-1686557174.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-mahindra-275-di-xp-plus-1686557174.png']</t>
+  </si>
+  <si>
+    <t>['img0-585-di-power-plus-bp-1632304691.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-585-di-power-plus-bp-1632304691.png']</t>
+  </si>
+  <si>
+    <t>['img0-eicher-557-4wd7.png', 'img1-eicher-557-4wd0.png', 'img2-eicher-557-4wd7.png', 'img3-eicher-557-4wd0.png']</t>
+  </si>
+  <si>
+    <t>['img0-sonalika-tiger-electric-4wd-1696505405.png', 'img1-sonalika-tiger-electric-4wd-16965054050.png', 'img2-sonalika-tiger-electric-4wd-1696505405.png', 'img3-sonalika-tiger-electric-4wd-16965054050.png']</t>
+  </si>
+  <si>
+    <t>['img0-yuvo-475-di-1632209232.png', 'img1-upload-1632209232-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-246-di-dynatrack-4wd-1632210661.png', 'img1-upload-1632210661-0.png', 'img2-upload-1632210661-0.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-5075e-4wd-1632221942.png', 'img1-upload-1632221942-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-mahindra-yuvo-tech-plus-265-di-1689143389.png', 'img1-mahindra-yuvo-tech-plus-265-di-1689143389.png', 'img2-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-powertrac-434-ds-1690867093.png', 'img1-powertrac-434-ds-1690867093.png']</t>
+  </si>
+  <si>
+    <t>['img0-3037-tx-1632215170.png', 'img1-upload-1632215170-0.png', 'img2-upload-1632215170-0.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-farmtrac-atom-26-1690535758.png', 'img1-farmtrac-atom-26-16905357580.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-new-holland-simba-20-4wd-1694673653.png', 'img1-new-holland-simba-20-4wd-16946736530.png', 'img2-new-holland-simba-20-4wd-1694673653.png', 'img3-new-holland-simba-20-4wd-16946736530.png']</t>
+  </si>
+  <si>
+    <t>['img0-415-di-1632305000.png', 'img1-upload-1632206831-0.png', 'img2-415-di-1632305000.png', 'img3-upload-1632206831-0.png']</t>
+  </si>
+  <si>
+    <t>['img0-sonalika-mm-18.png', 'img1-sonalika-mm-180.png', 'img2-sonalika-mm-18.png', 'img3-sonalika-mm-180.png']</t>
+  </si>
+  <si>
+    <t>['img0-di-745-iii-1631528823.png', 'img1-upload-1631528823-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-717-1631005623.png', 'img1-upload-1631005623-0.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
+  </si>
+  <si>
+    <t>['img0-575-di-1632207232.png', 'img1-mqdefault.png', 'img2-mqdefault.png', 'img3-mqdefault.png']</t>
   </si>
   <si>
     <t>Brand</t>
@@ -432,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,13 +599,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -454,10 +613,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -465,21 +624,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -487,21 +646,21 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -509,21 +668,406 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
